--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200310.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200310.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9593" uniqueCount="3296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9635" uniqueCount="3297">
   <si>
     <t>序号</t>
   </si>
@@ -10287,6 +10287,12 @@
   </si>
   <si>
     <t>http://wsjkw.cq.gov.cn/tzgg/20200311/259360.html</t>
+  </si>
+  <si>
+    <t>2020年3月10日0—24时，重庆市无新冠肺炎新增确诊病例报告，新增治愈出院病例5例。
+新增治愈出院病例中，万州区1例、江北区1例、南岸区1例、巴南区1例、綦江区1例。
+截至3月10日24时，重庆市现有在院确诊病例23例（无重型和危重型病例），累计死亡病例6例，累计治愈出院病例547例，累计报告确诊病例576例。累计追踪到密切接触者23680人，已解除医学观察23577人，尚有103人正在接受医学观察。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10740,8 +10746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10910,7 +10916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.2">
+    <row r="2" spans="1:40" ht="60">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -10921,7 +10927,7 @@
         <v>43900</v>
       </c>
       <c r="D2" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>41</v>
@@ -10955,7 +10961,9 @@
       <c r="T2" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U2" s="22"/>
+      <c r="U2" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V2" s="23" t="s">
         <v>3295</v>
       </c>
@@ -10963,7 +10971,7 @@
       <c r="X2" s="19"/>
       <c r="Y2" s="23"/>
       <c r="Z2" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>44</v>
@@ -10978,7 +10986,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="16.2">
+    <row r="3" spans="1:40" ht="60">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -10989,7 +10997,7 @@
         <v>43900</v>
       </c>
       <c r="D3" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>41</v>
@@ -11025,7 +11033,9 @@
       <c r="T3" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U3" s="22"/>
+      <c r="U3" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V3" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11033,7 +11043,7 @@
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA3" s="19" t="s">
         <v>44</v>
@@ -11045,7 +11055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16.2">
+    <row r="4" spans="1:40" ht="60">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11056,7 +11066,7 @@
         <v>43900</v>
       </c>
       <c r="D4" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>41</v>
@@ -11088,7 +11098,9 @@
       <c r="T4" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U4" s="22"/>
+      <c r="U4" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V4" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11096,7 +11108,7 @@
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
       <c r="Z4" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA4" s="19" t="s">
         <v>44</v>
@@ -11108,7 +11120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16.2">
+    <row r="5" spans="1:40" ht="60">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11119,7 +11131,7 @@
         <v>43900</v>
       </c>
       <c r="D5" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>41</v>
@@ -11151,7 +11163,9 @@
       <c r="T5" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U5" s="22"/>
+      <c r="U5" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V5" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11159,7 +11173,7 @@
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA5" s="19" t="s">
         <v>44</v>
@@ -11171,7 +11185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16.2">
+    <row r="6" spans="1:40" ht="60">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11182,7 +11196,7 @@
         <v>43900</v>
       </c>
       <c r="D6" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>41</v>
@@ -11214,7 +11228,9 @@
       <c r="T6" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U6" s="22"/>
+      <c r="U6" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V6" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11222,7 +11238,7 @@
       <c r="X6" s="19"/>
       <c r="Y6" s="19"/>
       <c r="Z6" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA6" s="19" t="s">
         <v>44</v>
@@ -11234,7 +11250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16.2">
+    <row r="7" spans="1:40" ht="60">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11245,7 +11261,7 @@
         <v>43900</v>
       </c>
       <c r="D7" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>41</v>
@@ -11277,7 +11293,9 @@
       <c r="T7" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U7" s="22"/>
+      <c r="U7" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V7" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11285,7 +11303,7 @@
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA7" s="19" t="s">
         <v>44</v>
@@ -11297,7 +11315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16.2">
+    <row r="8" spans="1:40" ht="60">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -11308,7 +11326,7 @@
         <v>43900</v>
       </c>
       <c r="D8" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>41</v>
@@ -11342,7 +11360,9 @@
       <c r="T8" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U8" s="22"/>
+      <c r="U8" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V8" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11350,7 +11370,7 @@
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA8" s="19" t="s">
         <v>44</v>
@@ -11362,7 +11382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16.2">
+    <row r="9" spans="1:40" ht="60">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11373,7 +11393,7 @@
         <v>43900</v>
       </c>
       <c r="D9" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>41</v>
@@ -11405,7 +11425,9 @@
       <c r="T9" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U9" s="22"/>
+      <c r="U9" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V9" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11413,7 +11435,7 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA9" s="19" t="s">
         <v>44</v>
@@ -11425,7 +11447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16.2">
+    <row r="10" spans="1:40" ht="60">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -11436,7 +11458,7 @@
         <v>43900</v>
       </c>
       <c r="D10" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>41</v>
@@ -11470,7 +11492,9 @@
       <c r="T10" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U10" s="22"/>
+      <c r="U10" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V10" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11478,7 +11502,7 @@
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA10" s="19" t="s">
         <v>44</v>
@@ -11490,7 +11514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16.2">
+    <row r="11" spans="1:40" ht="60">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11501,7 +11525,7 @@
         <v>43900</v>
       </c>
       <c r="D11" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>41</v>
@@ -11535,7 +11559,9 @@
       <c r="T11" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U11" s="22"/>
+      <c r="U11" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V11" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11543,7 +11569,7 @@
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA11" s="19" t="s">
         <v>44</v>
@@ -11555,7 +11581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16.2">
+    <row r="12" spans="1:40" ht="60">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -11566,7 +11592,7 @@
         <v>43900</v>
       </c>
       <c r="D12" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>41</v>
@@ -11594,7 +11620,9 @@
       <c r="T12" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U12" s="22"/>
+      <c r="U12" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V12" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11602,7 +11630,7 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA12" s="19" t="s">
         <v>44</v>
@@ -11614,7 +11642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16.2">
+    <row r="13" spans="1:40" ht="60">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11625,7 +11653,7 @@
         <v>43900</v>
       </c>
       <c r="D13" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>41</v>
@@ -11657,7 +11685,9 @@
       <c r="T13" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U13" s="22"/>
+      <c r="U13" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V13" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11665,7 +11695,7 @@
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA13" s="19" t="s">
         <v>44</v>
@@ -11677,7 +11707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16.2">
+    <row r="14" spans="1:40" ht="60">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -11688,7 +11718,7 @@
         <v>43900</v>
       </c>
       <c r="D14" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>41</v>
@@ -11722,7 +11752,9 @@
       <c r="T14" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U14" s="22"/>
+      <c r="U14" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V14" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11730,7 +11762,7 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA14" s="19" t="s">
         <v>44</v>
@@ -11742,7 +11774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16.2">
+    <row r="15" spans="1:40" ht="60">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11753,7 +11785,7 @@
         <v>43900</v>
       </c>
       <c r="D15" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>41</v>
@@ -11785,7 +11817,9 @@
       <c r="T15" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U15" s="22"/>
+      <c r="U15" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V15" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11793,7 +11827,7 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA15" s="19" t="s">
         <v>44</v>
@@ -11805,7 +11839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16.2">
+    <row r="16" spans="1:40" ht="60">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -11816,7 +11850,7 @@
         <v>43900</v>
       </c>
       <c r="D16" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>41</v>
@@ -11848,7 +11882,9 @@
       <c r="T16" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U16" s="22"/>
+      <c r="U16" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V16" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11856,7 +11892,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA16" s="19" t="s">
         <v>44</v>
@@ -11868,7 +11904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16.2">
+    <row r="17" spans="1:29" ht="60">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -11879,7 +11915,7 @@
         <v>43900</v>
       </c>
       <c r="D17" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>41</v>
@@ -11911,7 +11947,9 @@
       <c r="T17" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U17" s="22"/>
+      <c r="U17" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V17" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11919,7 +11957,7 @@
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA17" s="19" t="s">
         <v>44</v>
@@ -11931,7 +11969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16.2">
+    <row r="18" spans="1:29" ht="60">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -11942,7 +11980,7 @@
         <v>43900</v>
       </c>
       <c r="D18" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>41</v>
@@ -11974,7 +12012,9 @@
       <c r="T18" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U18" s="22"/>
+      <c r="U18" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V18" s="23" t="s">
         <v>3295</v>
       </c>
@@ -11982,7 +12022,7 @@
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA18" s="19" t="s">
         <v>44</v>
@@ -11994,7 +12034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16.2">
+    <row r="19" spans="1:29" ht="60">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12005,7 +12045,7 @@
         <v>43900</v>
       </c>
       <c r="D19" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>41</v>
@@ -12033,7 +12073,9 @@
       <c r="T19" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U19" s="22"/>
+      <c r="U19" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V19" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12041,7 +12083,7 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA19" s="19" t="s">
         <v>44</v>
@@ -12053,7 +12095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16.2">
+    <row r="20" spans="1:29" ht="60">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -12064,7 +12106,7 @@
         <v>43900</v>
       </c>
       <c r="D20" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>41</v>
@@ -12098,7 +12140,9 @@
       <c r="T20" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U20" s="22"/>
+      <c r="U20" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V20" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12106,7 +12150,7 @@
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA20" s="19" t="s">
         <v>44</v>
@@ -12118,7 +12162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.2">
+    <row r="21" spans="1:29" ht="60">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12129,7 +12173,7 @@
         <v>43900</v>
       </c>
       <c r="D21" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>41</v>
@@ -12161,7 +12205,9 @@
       <c r="T21" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U21" s="22"/>
+      <c r="U21" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V21" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12169,7 +12215,7 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA21" s="19" t="s">
         <v>44</v>
@@ -12181,7 +12227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.2">
+    <row r="22" spans="1:29" ht="60">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -12192,7 +12238,7 @@
         <v>43900</v>
       </c>
       <c r="D22" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>41</v>
@@ -12224,7 +12270,9 @@
       <c r="T22" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U22" s="22"/>
+      <c r="U22" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V22" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12232,7 +12280,7 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA22" s="19" t="s">
         <v>44</v>
@@ -12244,7 +12292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16.2">
+    <row r="23" spans="1:29" ht="60">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -12255,7 +12303,7 @@
         <v>43900</v>
       </c>
       <c r="D23" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>41</v>
@@ -12287,7 +12335,9 @@
       <c r="T23" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U23" s="22"/>
+      <c r="U23" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V23" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12295,7 +12345,7 @@
       <c r="X23" s="19"/>
       <c r="Y23" s="19"/>
       <c r="Z23" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA23" s="19" t="s">
         <v>44</v>
@@ -12307,7 +12357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16.2">
+    <row r="24" spans="1:29" ht="60">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -12318,7 +12368,7 @@
         <v>43900</v>
       </c>
       <c r="D24" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>41</v>
@@ -12350,7 +12400,9 @@
       <c r="T24" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U24" s="22"/>
+      <c r="U24" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V24" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12358,7 +12410,7 @@
       <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA24" s="19" t="s">
         <v>44</v>
@@ -12370,7 +12422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16.2">
+    <row r="25" spans="1:29" ht="60">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -12381,7 +12433,7 @@
         <v>43900</v>
       </c>
       <c r="D25" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>41</v>
@@ -12413,7 +12465,9 @@
       <c r="T25" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U25" s="22"/>
+      <c r="U25" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V25" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12421,7 +12475,7 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA25" s="19" t="s">
         <v>44</v>
@@ -12433,7 +12487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16.2">
+    <row r="26" spans="1:29" ht="60">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -12444,7 +12498,7 @@
         <v>43900</v>
       </c>
       <c r="D26" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>41</v>
@@ -12478,7 +12532,9 @@
       <c r="T26" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U26" s="22"/>
+      <c r="U26" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V26" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12486,7 +12542,7 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA26" s="19" t="s">
         <v>44</v>
@@ -12498,7 +12554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16.2">
+    <row r="27" spans="1:29" ht="60">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -12509,7 +12565,7 @@
         <v>43900</v>
       </c>
       <c r="D27" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>41</v>
@@ -12541,7 +12597,9 @@
       <c r="T27" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U27" s="22"/>
+      <c r="U27" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V27" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12549,7 +12607,7 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA27" s="19" t="s">
         <v>44</v>
@@ -12561,7 +12619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16.2">
+    <row r="28" spans="1:29" ht="60">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -12572,7 +12630,7 @@
         <v>43900</v>
       </c>
       <c r="D28" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
@@ -12604,7 +12662,9 @@
       <c r="T28" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U28" s="22"/>
+      <c r="U28" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V28" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12612,7 +12672,7 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA28" s="19" t="s">
         <v>44</v>
@@ -12624,7 +12684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.2">
+    <row r="29" spans="1:29" ht="60">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -12635,7 +12695,7 @@
         <v>43900</v>
       </c>
       <c r="D29" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>41</v>
@@ -12667,7 +12727,9 @@
       <c r="T29" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U29" s="22"/>
+      <c r="U29" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V29" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12675,7 +12737,7 @@
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA29" s="19" t="s">
         <v>44</v>
@@ -12687,7 +12749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16.2">
+    <row r="30" spans="1:29" ht="60">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -12698,7 +12760,7 @@
         <v>43900</v>
       </c>
       <c r="D30" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>41</v>
@@ -12730,7 +12792,9 @@
       <c r="T30" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U30" s="22"/>
+      <c r="U30" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V30" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12738,7 +12802,7 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA30" s="19" t="s">
         <v>44</v>
@@ -12750,7 +12814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16.2">
+    <row r="31" spans="1:29" ht="60">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -12761,7 +12825,7 @@
         <v>43900</v>
       </c>
       <c r="D31" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>41</v>
@@ -12793,7 +12857,9 @@
       <c r="T31" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U31" s="22"/>
+      <c r="U31" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V31" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12801,7 +12867,7 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA31" s="19" t="s">
         <v>44</v>
@@ -12813,7 +12879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.2">
+    <row r="32" spans="1:29" ht="60">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -12824,7 +12890,7 @@
         <v>43900</v>
       </c>
       <c r="D32" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>41</v>
@@ -12856,7 +12922,9 @@
       <c r="T32" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U32" s="22"/>
+      <c r="U32" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V32" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12864,7 +12932,7 @@
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA32" s="19" t="s">
         <v>44</v>
@@ -12876,7 +12944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16.2">
+    <row r="33" spans="1:29" ht="60">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -12887,7 +12955,7 @@
         <v>43900</v>
       </c>
       <c r="D33" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>41</v>
@@ -12919,7 +12987,9 @@
       <c r="T33" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U33" s="22"/>
+      <c r="U33" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V33" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12927,7 +12997,7 @@
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA33" s="19" t="s">
         <v>44</v>
@@ -12939,7 +13009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="16.2">
+    <row r="34" spans="1:29" ht="60">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -12950,7 +13020,7 @@
         <v>43900</v>
       </c>
       <c r="D34" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>41</v>
@@ -12982,7 +13052,9 @@
       <c r="T34" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U34" s="22"/>
+      <c r="U34" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V34" s="23" t="s">
         <v>3295</v>
       </c>
@@ -12990,7 +13062,7 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA34" s="19" t="s">
         <v>44</v>
@@ -13002,7 +13074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="16.2">
+    <row r="35" spans="1:29" ht="60">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -13013,7 +13085,7 @@
         <v>43900</v>
       </c>
       <c r="D35" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>41</v>
@@ -13045,7 +13117,9 @@
       <c r="T35" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U35" s="22"/>
+      <c r="U35" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V35" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13053,7 +13127,7 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA35" s="19" t="s">
         <v>44</v>
@@ -13065,7 +13139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16.2">
+    <row r="36" spans="1:29" ht="60">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -13076,7 +13150,7 @@
         <v>43900</v>
       </c>
       <c r="D36" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>41</v>
@@ -13108,7 +13182,9 @@
       <c r="T36" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U36" s="22"/>
+      <c r="U36" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V36" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13116,7 +13192,7 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA36" s="19" t="s">
         <v>44</v>
@@ -13128,7 +13204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16.2">
+    <row r="37" spans="1:29" ht="60">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -13139,7 +13215,7 @@
         <v>43900</v>
       </c>
       <c r="D37" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>41</v>
@@ -13171,7 +13247,9 @@
       <c r="T37" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U37" s="22"/>
+      <c r="U37" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V37" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13179,7 +13257,7 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA37" s="19" t="s">
         <v>44</v>
@@ -13191,7 +13269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="16.2">
+    <row r="38" spans="1:29" ht="60">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -13202,7 +13280,7 @@
         <v>43900</v>
       </c>
       <c r="D38" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>41</v>
@@ -13234,7 +13312,9 @@
       <c r="T38" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U38" s="22"/>
+      <c r="U38" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V38" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13242,7 +13322,7 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="Z38" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA38" s="19" t="s">
         <v>44</v>
@@ -13254,7 +13334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16.2">
+    <row r="39" spans="1:29" ht="60">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -13265,7 +13345,7 @@
         <v>43900</v>
       </c>
       <c r="D39" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>41</v>
@@ -13297,7 +13377,9 @@
       <c r="T39" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U39" s="22"/>
+      <c r="U39" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V39" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13305,7 +13387,7 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA39" s="19" t="s">
         <v>44</v>
@@ -13317,7 +13399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="16.2">
+    <row r="40" spans="1:29" ht="60">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -13328,7 +13410,7 @@
         <v>43900</v>
       </c>
       <c r="D40" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>41</v>
@@ -13360,7 +13442,9 @@
       <c r="T40" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U40" s="22"/>
+      <c r="U40" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V40" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13368,7 +13452,7 @@
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="Z40" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA40" s="19" t="s">
         <v>44</v>
@@ -13380,7 +13464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="16.2">
+    <row r="41" spans="1:29" ht="60">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -13391,7 +13475,7 @@
         <v>43900</v>
       </c>
       <c r="D41" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>41</v>
@@ -13423,7 +13507,9 @@
       <c r="T41" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U41" s="22"/>
+      <c r="U41" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V41" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13431,7 +13517,7 @@
       <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
       <c r="Z41" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA41" s="19" t="s">
         <v>44</v>
@@ -13443,7 +13529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.2">
+    <row r="42" spans="1:29" ht="60">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -13454,7 +13540,7 @@
         <v>43900</v>
       </c>
       <c r="D42" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>41</v>
@@ -13486,7 +13572,9 @@
       <c r="T42" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U42" s="22"/>
+      <c r="U42" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V42" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13494,7 +13582,7 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
       <c r="Z42" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA42" s="19" t="s">
         <v>44</v>
@@ -13506,7 +13594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16.2">
+    <row r="43" spans="1:29" ht="60">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -13517,7 +13605,7 @@
         <v>43900</v>
       </c>
       <c r="D43" s="18">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>41</v>
@@ -13549,7 +13637,9 @@
       <c r="T43" s="21">
         <v>43901.375</v>
       </c>
-      <c r="U43" s="22"/>
+      <c r="U43" s="22" t="s">
+        <v>3296</v>
+      </c>
       <c r="V43" s="23" t="s">
         <v>3295</v>
       </c>
@@ -13557,7 +13647,7 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="21">
-        <v>43900.399305555555</v>
+        <v>43901.399305555555</v>
       </c>
       <c r="AA43" s="19" t="s">
         <v>44</v>
